--- a/biology/Botanique/Valoniaceae/Valoniaceae.xlsx
+++ b/biology/Botanique/Valoniaceae/Valoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Valoniaceae sont une famille d'algues vertes de l'ordre des Cladophorales selon AlgaeBase                                           (30 avril 2013)[1] ou des Siphonocladales selon ITIS      (30 avril 2013)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Valoniaceae sont une famille d'algues vertes de l'ordre des Cladophorales selon AlgaeBase                                           (30 avril 2013) ou des Siphonocladales selon ITIS      (30 avril 2013).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Valonia, dont l'étymologie n'est pas claire. Le nom aurait été attribué par le naturaliste italien du XVIIIe siècle Giuseppe Ginanni[note 1] pour nommer une algue commune dans la lagune de Venise[3]. Par la suite, au XIXe siècle, le botaniste Agardh utilisa ce nom vernaculaire en tant que genre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Valonia, dont l'étymologie n'est pas claire. Le nom aurait été attribué par le naturaliste italien du XVIIIe siècle Giuseppe Ginanni[note 1] pour nommer une algue commune dans la lagune de Venise. Par la suite, au XIXe siècle, le botaniste Agardh utilisa ce nom vernaculaire en tant que genre.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (30 avril 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (30 avril 2013) :
 Petrosiphon M.A.Howe
 Valonia C.Agardh
 Valoniopsis Børgesen</t>
